--- a/results/data/CDW_masterpie.xlsx
+++ b/results/data/CDW_masterpie.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>704704.9070000006</v>
+        <v>705576.4580000015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>664859.5579999997</v>
+        <v>664859.5580000002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2359943.454999995</v>
+        <v>2359943.454999996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>551913.8109999996</v>
+        <v>551913.8109999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>466825.9979999995</v>
+        <v>466825.9979999998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2002129.391000004</v>
+        <v>2350415.607000005</v>
       </c>
     </row>
   </sheetData>
